--- a/data/regression_name_list1425.xlsx
+++ b/data/regression_name_list1425.xlsx
@@ -462,7 +462,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -524,7 +524,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -648,7 +648,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1144,7 +1144,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1826,7 +1826,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2129,7 +2129,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2191,7 +2191,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2253,7 +2253,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2315,7 +2315,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2377,7 +2377,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2439,7 +2439,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2508,7 +2508,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2563,7 +2563,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2625,7 +2625,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2687,7 +2687,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2749,7 +2749,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2811,7 +2811,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2873,7 +2873,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2935,7 +2935,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2997,7 +2997,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3059,7 +3059,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3121,7 +3121,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3190,7 +3190,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3245,7 +3245,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3307,7 +3307,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3369,7 +3369,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3431,7 +3431,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3493,7 +3493,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3872,7 +3872,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4072,7 +4072,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4141,7 +4141,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4210,7 +4210,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4279,7 +4279,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4348,7 +4348,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4417,7 +4417,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4486,7 +4486,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4555,7 +4555,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4610,7 +4610,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4686,7 +4686,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4755,7 +4755,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4824,7 +4824,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4893,7 +4893,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4962,7 +4962,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5031,7 +5031,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5100,7 +5100,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5169,7 +5169,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5238,7 +5238,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5307,7 +5307,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5362,7 +5362,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5438,7 +5438,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5507,7 +5507,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5576,7 +5576,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5645,7 +5645,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5714,7 +5714,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5783,7 +5783,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5852,7 +5852,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5921,7 +5921,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5990,7 +5990,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -6059,7 +6059,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -6114,7 +6114,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
